--- a/Input data/Task_list_Test.xlsx
+++ b/Input data/Task_list_Test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lichen/Desktop/Thesis/Model/Input data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lichen/PycharmProjects/ACO_Example/Input data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC81A61A-4E71-DD40-9D28-A135A73EA44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33847A13-B699-8944-A1D7-E84A0FE49D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="860" windowWidth="27440" windowHeight="16940" xr2:uid="{A42DF498-1344-D146-AA3B-A40409BEB30C}"/>
+    <workbookView xWindow="1360" yWindow="6520" windowWidth="27440" windowHeight="16940" xr2:uid="{A42DF498-1344-D146-AA3B-A40409BEB30C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasklist" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Task type</t>
   </si>
@@ -72,6 +72,14 @@
   </si>
   <si>
     <t>Predecessors</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start node</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>End node</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -448,22 +456,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD6D0D4-69AF-C543-B15F-FC934284425F}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="21.5" customWidth="1"/>
+    <col min="3" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="6" max="7" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -473,20 +481,26 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -497,19 +511,25 @@
         <v>225</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
         <v>285</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1">
+        <v>72</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -520,19 +540,25 @@
         <v>225</v>
       </c>
       <c r="D3" s="1">
+        <v>57</v>
+      </c>
+      <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>100</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1">
+        <v>141</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -546,16 +572,22 @@
         <v>0</v>
       </c>
       <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
         <v>370</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1">
+        <v>93</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -569,16 +601,22 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
         <v>400</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1">
+        <v>100</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -589,19 +627,25 @@
         <v>225</v>
       </c>
       <c r="D6" s="1">
+        <v>57</v>
+      </c>
+      <c r="E6" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>200</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1">
+        <v>146</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -612,19 +656,25 @@
         <v>370</v>
       </c>
       <c r="D7" s="1">
+        <v>93</v>
+      </c>
+      <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>270</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1">
+        <v>150</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="1">
+      <c r="I7" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -635,19 +685,25 @@
         <v>225</v>
       </c>
       <c r="D8" s="1">
+        <v>57</v>
+      </c>
+      <c r="E8" s="1">
         <v>2</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>380</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1">
+        <v>155</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -661,16 +717,22 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
         <v>370</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1">
+        <v>93</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -681,19 +743,25 @@
         <v>400</v>
       </c>
       <c r="D10" s="1">
+        <v>100</v>
+      </c>
+      <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>280</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1">
+        <v>127</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="1">
+      <c r="I10" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -704,15 +772,21 @@
         <v>225</v>
       </c>
       <c r="D11" s="1">
+        <v>57</v>
+      </c>
+      <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>380</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1">
+        <v>132</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="1">
+      <c r="I11" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Input data/Task_list_Test.xlsx
+++ b/Input data/Task_list_Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lichen/PycharmProjects/ACO_Example/Input data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33847A13-B699-8944-A1D7-E84A0FE49D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BC8334-0A10-1041-8EB8-B15C32385BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="6520" windowWidth="27440" windowHeight="16940" xr2:uid="{A42DF498-1344-D146-AA3B-A40409BEB30C}"/>
+    <workbookView xWindow="1360" yWindow="1060" windowWidth="27440" windowHeight="16940" xr2:uid="{A42DF498-1344-D146-AA3B-A40409BEB30C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasklist" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>Task type</t>
   </si>
@@ -456,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD6D0D4-69AF-C543-B15F-FC934284425F}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -790,6 +790,296 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>225</v>
+      </c>
+      <c r="D12" s="1">
+        <v>57</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>285</v>
+      </c>
+      <c r="G12" s="1">
+        <v>72</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>225</v>
+      </c>
+      <c r="D13" s="1">
+        <v>57</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>100</v>
+      </c>
+      <c r="G13" s="1">
+        <v>141</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>370</v>
+      </c>
+      <c r="G14" s="1">
+        <v>93</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>400</v>
+      </c>
+      <c r="G15" s="1">
+        <v>100</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>225</v>
+      </c>
+      <c r="D16" s="1">
+        <v>57</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>200</v>
+      </c>
+      <c r="G16" s="1">
+        <v>146</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>225</v>
+      </c>
+      <c r="D17" s="1">
+        <v>57</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>285</v>
+      </c>
+      <c r="G17" s="1">
+        <v>72</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>225</v>
+      </c>
+      <c r="D18" s="1">
+        <v>57</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>100</v>
+      </c>
+      <c r="G18" s="1">
+        <v>141</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>370</v>
+      </c>
+      <c r="G19" s="1">
+        <v>93</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>400</v>
+      </c>
+      <c r="G20" s="1">
+        <v>100</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>225</v>
+      </c>
+      <c r="D21" s="1">
+        <v>57</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>200</v>
+      </c>
+      <c r="G21" s="1">
+        <v>146</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
